--- a/论文写作/参考文献.xlsx
+++ b/论文写作/参考文献.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,10 +919,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RASMUS HELTBERG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据我国人口数量、城镇化速度和耕地资源情况，借鉴国内外家庭农场适度规模大小的经验，得出我国户均耕作面积的平均规模为2.67公顷，家庭农场平均经营规模将达到26.7公顷。并认为这一规模能确保充分就业，并使城乡居民收入相当。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1811,6 +1807,45 @@
   <si>
     <t>Barrett，C. B.，M. F. Bellemare and J. Y. Hou，(2010)
 Reconsidering Conventional Explanations of the Inverse Produc⁃ tivity – Size Relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sen, A. K. (1962). An aspect of indian agriculture. Economic Weekly, 14, 243–266.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feder, G. (1985). The relation between farm size and farm productivity: The role of family labor, supervision and credit constraints. Journal of Development Economics, 18(2–3), 297–313.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrett, C. B. (1996). On price risk and the inverse farm size–productivity relationship. Journal of Development Economics, 51(2), 193–215.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大农户更多的使用雇佣劳动力，有限的家庭劳动力无法完全监督雇佣农民的情况下，雇佣农民不会花费太多的精力提高生产力，因此较大农场的生产力倾向于低于小农户（道德风险）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力市场存在剩余劳动力，且小农户与大农户（资本主义农场）之间存在工资差距，由于小农户实际劳动力成本低于资本主义农场的劳动力成本时，小农场将比大农场更具有生产力（劳动力市场不完善）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assuncßa˜o, J. J., &amp; Braido, L. H. B. (2007). Testing household-specific explanations for the inverse productivity relationship. American Journal of Agricultural Economics, 89(4), 980–990.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地市场的不完善和缺乏农业保险市场的条件下，小农户倾向于增加家庭劳动力，大农户倾向于减少雇佣劳动力以规避市场价格波动的风险，多重因素导致小农户产量高于大农户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benjamin, D. (1995). Can unobserved land quality explain the inverse productivity relationship?. Journal of Development Economics, 46(1), 51–84.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamb, R. L. (2003). Inverse productivity: Land quality, labor markets, and measurement error. Journal of Development Economics, 71(1), 71–95.</t>
+  </si>
+  <si>
+    <t>测量误差导致负向关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2256,11 +2291,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2290,16 +2325,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>4</v>
@@ -2319,19 +2354,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
@@ -2354,7 +2389,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>69</v>
@@ -2377,7 +2412,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>44</v>
@@ -2388,7 +2423,7 @@
     </row>
     <row r="5" spans="2:11" ht="229.5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -2397,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>20</v>
@@ -2420,7 +2455,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>27</v>
@@ -2437,7 +2472,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>32</v>
@@ -2454,7 +2489,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>72</v>
@@ -2474,7 +2509,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -2488,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>39</v>
@@ -2508,7 +2543,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>56</v>
@@ -2529,7 +2564,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>65</v>
@@ -2552,10 +2587,10 @@
         <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>48</v>
@@ -2591,7 +2626,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -2612,12 +2647,12 @@
         <v>30</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
@@ -2632,7 +2667,7 @@
     </row>
     <row r="21" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
@@ -2644,12 +2679,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
         <v>101</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/论文写作/参考文献.xlsx
+++ b/论文写作/参考文献.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2A6F9-04CD-4D60-96B3-AFF5BF6A6FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
@@ -1852,7 +1853,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2080,6 +2081,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2115,6 +2133,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2290,12 +2325,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2734,7 +2769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2747,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/论文写作/参考文献.xlsx
+++ b/论文写作/参考文献.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2A6F9-04CD-4D60-96B3-AFF5BF6A6FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14D1C1-D8F7-43A8-827E-F1CB7691CFCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,6 +1847,60 @@
   </si>
   <si>
     <t>测量误差导致负向关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农户调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USAID BASIS，马达加斯加两个中部高地市镇的17个村庄水稻种植户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>显著为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一小部分的负向关系可以由市场的不完善解释，都不能由土壤质量变量遗漏来解释。能够解释大部分的解释负向关系的原因可能是测量误差和家庭内部分配效率地下（lamb）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Ayalew Ali Klaus Deininger（2014）
+Is There a Farm-Size Productivity
+Relationship in African Agriculture? Evidence from Rwanda
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单位利润（使用市场工资率），负向关系基本上消失了
+虽然一套解释的重点是未观察到的土地质量差异, 但另一套解释侧重于劳动力市场的缺陷, 这些缺陷使小生产者要么比较大的生产者付出更多的努力, 要么比家庭劳动力的最佳数量付出更多。信贷市场的缺陷和低于一定规模的地块大小对机械化施加的限制可能会与此相抵消, 从而为大型生产商提供优势, 随着获得机械化的机会变得更加重要, 这可能会削弱这种关系, 特别是在劳动力市场运作得到改善。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢旺达300个随机选定的村庄，3600个农户家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010/2011年农户调查数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2326,11 +2380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K28"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2664,12 +2718,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2677,7 +2731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -2685,7 +2739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
@@ -2700,7 +2754,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
@@ -2714,50 +2768,79 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="23" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>110</v>
       </c>
     </row>

--- a/论文写作/参考文献.xlsx
+++ b/论文写作/参考文献.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14D1C1-D8F7-43A8-827E-F1CB7691CFCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69BA318-95DA-4420-A9A6-B44D40836744}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1901,6 +1901,19 @@
   </si>
   <si>
     <t>2010/2011年农户调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RASMUS HELTBERG （1998）
+Rural Market Imperfections and the Farm SizeProductivity Relationship: Evidence from Pakistan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农户调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴基斯坦农村住户调查数据（1986-1987，1990-1991）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2380,11 +2393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K29"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2802,45 +2815,56 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>110</v>
       </c>
     </row>
